--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_6_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>316527.9154901583</v>
+        <v>315815.6136671139</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.451805855</v>
+        <v>632041.4518058541</v>
       </c>
     </row>
     <row r="9">
@@ -1224,52 +1224,52 @@
         <v>2.817899082923868</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>107.4919513616716</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4979333192473</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240833</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929911</v>
+        <v>16.73328122929901</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538048</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675157</v>
+        <v>44.31761724675145</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958195</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560843</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.51425958691602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,28 +1449,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298233</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>159.1821864592253</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>99.26037378884664</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874160998</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693662</v>
+        <v>13.44252716693651</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242259</v>
+        <v>36.82265945242248</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382092</v>
+        <v>59.07980534382081</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233456</v>
+        <v>62.50065676233444</v>
       </c>
       <c r="W12" t="n">
-        <v>88.5563194239439</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640292</v>
+        <v>39.1646502864028</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095793</v>
+        <v>45.23602198095782</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256642</v>
+        <v>25.28169700256631</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311287</v>
+        <v>57.28978021311276</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725532</v>
+        <v>45.61329429725521</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5082928154979</v>
+        <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138222</v>
+        <v>66.9607510313821</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362676</v>
+        <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517484</v>
+        <v>43.77119125517473</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110073</v>
+        <v>38.99300866110062</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="F14" t="n">
-        <v>128.868300567183</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554829</v>
+        <v>89.69536001127761</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240833</v>
+        <v>62.86150506240817</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929911</v>
+        <v>16.73328122929895</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538048</v>
+        <v>49.36873040538032</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675157</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958206</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371298233</v>
+        <v>9.369887371298063</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>76.29756912799475</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>131.7540947933418</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T15" t="n">
-        <v>188.4979333192473</v>
+        <v>36.82265945242242</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382092</v>
+        <v>59.07980534382075</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233456</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W15" t="n">
-        <v>88.5563194239439</v>
+        <v>88.55631942394373</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640292</v>
+        <v>39.16465028640275</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095793</v>
+        <v>45.23602198095776</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256642</v>
+        <v>25.28169700256625</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311287</v>
+        <v>57.2897802131127</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725532</v>
+        <v>45.61329429725515</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5082928154979</v>
+        <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138222</v>
+        <v>66.96075103138205</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362676</v>
+        <v>112.1624429362675</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517484</v>
+        <v>43.77119125517467</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110073</v>
+        <v>38.99300866110056</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>52.7578264541944</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524296</v>
       </c>
       <c r="E17" t="n">
         <v>74.03124113465174</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874160998</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890776</v>
+        <v>113.5538092836904</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T18" t="n">
-        <v>168.3366547130874</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="U18" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>52.7578264541944</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524352</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E20" t="n">
         <v>74.03124113465174</v>
@@ -2096,7 +2096,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156671</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2163,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>60.63479712118399</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2202,25 +2202,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874160998</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S21" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T21" t="n">
-        <v>188.4979333192473</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>54.11421720367338</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V24" t="n">
-        <v>7.836446385895854</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="X24" t="n">
-        <v>188.4979333192473</v>
+        <v>10.41491931880518</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="25">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182263</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F26" t="n">
         <v>189.7144991160125</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5366480845497</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147503</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444724</v>
+        <v>14.03224403444716</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818319</v>
+        <v>8.981130875818224</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864882</v>
+        <v>36.66579096864874</v>
       </c>
       <c r="V26" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W26" t="n">
-        <v>124.411713301766</v>
+        <v>124.4117133017659</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.800816894449</v>
+        <v>168.8008168944489</v>
       </c>
     </row>
     <row r="27">
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>214.9709236054903</v>
+        <v>1.486173081489262</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288768</v>
+        <v>23.74331897288759</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.16417039140123</v>
       </c>
       <c r="W27" t="n">
-        <v>256.5410188065176</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469673</v>
+        <v>3.828163915469588</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024685</v>
+        <v>108.7097176910261</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217963</v>
+        <v>21.95329384217954</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632208</v>
+        <v>10.27680792632199</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456468</v>
+        <v>75.1718064445646</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044897</v>
+        <v>31.62426466044889</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533439</v>
+        <v>76.82595656533431</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241597</v>
+        <v>8.434704884241512</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167487</v>
+        <v>3.656522290167402</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>205.3534224386476</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5366480845497</v>
+        <v>133.5366480845496</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147509</v>
+        <v>27.5250186914751</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>14.03224403444724</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818319</v>
+        <v>8.981130875818321</v>
       </c>
       <c r="U29" t="n">
         <v>36.66579096864882</v>
@@ -2880,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>89.08831953535865</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2913,13 +2913,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.49774663357861</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>214.9709236054903</v>
@@ -2928,10 +2928,10 @@
         <v>23.74331897288768</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.16417039140131</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21983305301066</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>3.828163915469673</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.7747799869682</v>
+        <v>159.774779986968</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8930369903136</v>
+        <v>135.8930369903135</v>
       </c>
       <c r="D32" t="n">
-        <v>123.4596992513621</v>
+        <v>123.459699251362</v>
       </c>
       <c r="E32" t="n">
-        <v>157.166451670771</v>
+        <v>157.1664516707709</v>
       </c>
       <c r="F32" t="n">
-        <v>188.8867892491483</v>
+        <v>188.8867892491482</v>
       </c>
       <c r="G32" t="n">
-        <v>204.5257125717833</v>
+        <v>204.5257125717832</v>
       </c>
       <c r="H32" t="n">
-        <v>132.7089382176854</v>
+        <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461087</v>
+        <v>26.69730882461076</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758301</v>
+        <v>13.20453416758289</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954069</v>
+        <v>8.153421008953956</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178458</v>
+        <v>35.83808110178447</v>
       </c>
       <c r="V32" t="n">
-        <v>106.5673232182868</v>
+        <v>106.5673232182867</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5840034349017</v>
+        <v>123.5840034349016</v>
       </c>
       <c r="X32" t="n">
-        <v>145.470253903841</v>
+        <v>145.4702539038408</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.9731070275847</v>
+        <v>167.9731070275846</v>
       </c>
     </row>
     <row r="33">
@@ -3108,19 +3108,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>122.2436956060357</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146251073</v>
+        <v>0.6584632146249936</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602344</v>
+        <v>22.91560910602333</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453707</v>
+        <v>111.7070126187726</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614642</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605434</v>
+        <v>3.00045404860532</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160446</v>
+        <v>9.071825743160332</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531539</v>
+        <v>21.12558397531528</v>
       </c>
       <c r="T34" t="n">
-        <v>9.449098059457837</v>
+        <v>9.449098059457723</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770044</v>
+        <v>74.34409657770033</v>
       </c>
       <c r="V34" t="n">
-        <v>30.79655479358473</v>
+        <v>30.79655479358462</v>
       </c>
       <c r="W34" t="n">
-        <v>75.99824669847015</v>
+        <v>75.99824669847004</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377358</v>
+        <v>7.606995017377244</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303248</v>
+        <v>2.828812423303134</v>
       </c>
     </row>
     <row r="35">
@@ -3348,19 +3348,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>82.61484152544574</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>134.7198007890776</v>
       </c>
       <c r="S36" t="n">
-        <v>125.088755000408</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>99.9273195737015</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>214.4245793934224</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -3822,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -3870,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>175.9731420650579</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>216.6652040237949</v>
+        <v>25.69481436153558</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161012</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>168.0503214642897</v>
+        <v>163.2962047723107</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="C8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="D8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="E8" t="n">
         <v>6.719070557086891</v>
@@ -4844,10 +4844,10 @@
         <v>6.590454258427762</v>
       </c>
       <c r="X8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="C9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="D9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="E9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="F9" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="G9" t="n">
         <v>0.2559399712010781</v>
@@ -4884,13 +4884,13 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="M9" t="n">
-        <v>3.295227129213883</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="N9" t="n">
         <v>6.462484272827225</v>
@@ -4902,31 +4902,31 @@
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="R9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="S9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="T9" t="n">
-        <v>9.565433267111001</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="U9" t="n">
-        <v>9.565433267111001</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="V9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="W9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="X9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.102302681225188</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>268.9782572732727</v>
+        <v>123.6575633136929</v>
       </c>
       <c r="C11" t="n">
-        <v>268.9782572732727</v>
+        <v>123.6575633136929</v>
       </c>
       <c r="D11" t="n">
-        <v>268.9782572732727</v>
+        <v>123.6575633136929</v>
       </c>
       <c r="E11" t="n">
-        <v>268.9782572732727</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F11" t="n">
-        <v>268.9782572732727</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G11" t="n">
-        <v>78.5763044255482</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H11" t="n">
-        <v>78.5763044255482</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I11" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021287</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K11" t="n">
-        <v>115.4902538590858</v>
+        <v>115.4902538590854</v>
       </c>
       <c r="L11" t="n">
-        <v>162.211096339846</v>
+        <v>162.2110963398456</v>
       </c>
       <c r="M11" t="n">
-        <v>243.0729954267933</v>
+        <v>243.072995426793</v>
       </c>
       <c r="N11" t="n">
-        <v>318.4008885624858</v>
+        <v>318.4008885624854</v>
       </c>
       <c r="O11" t="n">
-        <v>505.0138425485407</v>
+        <v>505.0138425485402</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324999</v>
+        <v>666.4395714324995</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769892</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049698</v>
+        <v>737.0894290049697</v>
       </c>
       <c r="S11" t="n">
-        <v>687.2220245550906</v>
+        <v>737.0894290049697</v>
       </c>
       <c r="T11" t="n">
-        <v>642.4567546088767</v>
+        <v>692.3241590587561</v>
       </c>
       <c r="U11" t="n">
-        <v>642.4567546088767</v>
+        <v>619.5945859884713</v>
       </c>
       <c r="V11" t="n">
-        <v>498.283502633034</v>
+        <v>475.4213340126286</v>
       </c>
       <c r="W11" t="n">
-        <v>498.283502633034</v>
+        <v>314.0595161614174</v>
       </c>
       <c r="X11" t="n">
-        <v>498.283502633034</v>
+        <v>314.0595161614174</v>
       </c>
       <c r="Y11" t="n">
-        <v>459.3802101209976</v>
+        <v>314.0595161614174</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>398.7673935891302</v>
+        <v>304.7551127596939</v>
       </c>
       <c r="C12" t="n">
-        <v>389.3028608908491</v>
+        <v>115.3428384926576</v>
       </c>
       <c r="D12" t="n">
-        <v>389.3028608908491</v>
+        <v>115.3428384926576</v>
       </c>
       <c r="E12" t="n">
-        <v>228.5127735582983</v>
+        <v>115.3428384926576</v>
       </c>
       <c r="F12" t="n">
-        <v>68.08505727554238</v>
+        <v>115.3428384926576</v>
       </c>
       <c r="G12" t="n">
-        <v>68.08505727554238</v>
+        <v>115.3428384926576</v>
       </c>
       <c r="H12" t="n">
-        <v>68.08505727554238</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I12" t="n">
-        <v>68.08505727554238</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J12" t="n">
         <v>15.07983466553978</v>
@@ -5127,43 +5127,43 @@
         <v>170.3760798097944</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137999</v>
+        <v>352.0527264137998</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998548</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188892</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769892</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0528889596549</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0528889596549</v>
+        <v>753.991733276989</v>
       </c>
       <c r="S12" t="n">
-        <v>733.4745786900219</v>
+        <v>740.4134230073561</v>
       </c>
       <c r="T12" t="n">
-        <v>696.2799731825243</v>
+        <v>703.2188174998586</v>
       </c>
       <c r="U12" t="n">
-        <v>636.6034021281597</v>
+        <v>643.5422464454941</v>
       </c>
       <c r="V12" t="n">
-        <v>573.4714256005491</v>
+        <v>580.4102699178836</v>
       </c>
       <c r="W12" t="n">
-        <v>484.0205978995957</v>
+        <v>390.0083170701591</v>
       </c>
       <c r="X12" t="n">
-        <v>444.4603450850473</v>
+        <v>350.4480642556109</v>
       </c>
       <c r="Y12" t="n">
-        <v>398.7673935891302</v>
+        <v>304.7551127596939</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.07983466553978</v>
+        <v>15.60586471875849</v>
       </c>
       <c r="C13" t="n">
-        <v>15.07983466553978</v>
+        <v>15.60586471875849</v>
       </c>
       <c r="D13" t="n">
-        <v>15.07983466553978</v>
+        <v>48.24182248209201</v>
       </c>
       <c r="E13" t="n">
-        <v>51.18723637697406</v>
+        <v>84.3492241935264</v>
       </c>
       <c r="F13" t="n">
-        <v>51.18723637697406</v>
+        <v>84.3492241935264</v>
       </c>
       <c r="G13" t="n">
-        <v>51.18723637697406</v>
+        <v>84.3492241935264</v>
       </c>
       <c r="H13" t="n">
-        <v>51.18723637697406</v>
+        <v>84.3492241935264</v>
       </c>
       <c r="I13" t="n">
-        <v>51.18723637697406</v>
+        <v>97.51156731777813</v>
       </c>
       <c r="J13" t="n">
-        <v>51.18723637697406</v>
+        <v>154.8411373222354</v>
       </c>
       <c r="K13" t="n">
-        <v>161.194337550713</v>
+        <v>207.2852437090525</v>
       </c>
       <c r="L13" t="n">
-        <v>200.4196423682612</v>
+        <v>351.8217271348926</v>
       </c>
       <c r="M13" t="n">
-        <v>351.8217271348937</v>
+        <v>351.8217271348926</v>
       </c>
       <c r="N13" t="n">
-        <v>351.8217271348937</v>
+        <v>351.8217271348926</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8217271348937</v>
+        <v>351.8217271348926</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351843</v>
+        <v>470.2946957351833</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426691</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633091</v>
+        <v>495.1795934633083</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015789</v>
+        <v>437.3111286015782</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578867</v>
+        <v>391.2370939578861</v>
       </c>
       <c r="U13" t="n">
-        <v>279.612555760414</v>
+        <v>279.6125557604136</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064925</v>
+        <v>211.9754335064922</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117168</v>
+        <v>98.68003660117145</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099507</v>
+        <v>54.46671210099495</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553978</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>569.7271815385919</v>
+        <v>359.5796310220377</v>
       </c>
       <c r="C14" t="n">
-        <v>569.7271815385919</v>
+        <v>359.5796310220377</v>
       </c>
       <c r="D14" t="n">
-        <v>569.7271815385919</v>
+        <v>359.5796310220377</v>
       </c>
       <c r="E14" t="n">
-        <v>379.3252286908674</v>
+        <v>169.1776781743132</v>
       </c>
       <c r="F14" t="n">
-        <v>249.1552281179552</v>
+        <v>169.1776781743132</v>
       </c>
       <c r="G14" t="n">
-        <v>249.1552281179552</v>
+        <v>169.1776781743132</v>
       </c>
       <c r="H14" t="n">
-        <v>78.57630442554822</v>
+        <v>78.57630442554805</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021287</v>
+        <v>115.4328134021289</v>
       </c>
       <c r="K14" t="n">
-        <v>115.4328134021287</v>
+        <v>115.4328134021289</v>
       </c>
       <c r="L14" t="n">
-        <v>302.0457673881835</v>
+        <v>185.1194617282522</v>
       </c>
       <c r="M14" t="n">
-        <v>382.9076664751309</v>
+        <v>371.732415714307</v>
       </c>
       <c r="N14" t="n">
-        <v>558.3453697003621</v>
+        <v>558.3453697003617</v>
       </c>
       <c r="O14" t="n">
-        <v>592.56600439303</v>
+        <v>592.5660043930295</v>
       </c>
       <c r="P14" t="n">
-        <v>753.9917332769892</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769892</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R14" t="n">
         <v>737.0894290049698</v>
       </c>
       <c r="S14" t="n">
-        <v>687.2220245550906</v>
+        <v>687.2220245550907</v>
       </c>
       <c r="T14" t="n">
-        <v>642.4567546088768</v>
+        <v>687.2220245550907</v>
       </c>
       <c r="U14" t="n">
-        <v>569.7271815385919</v>
+        <v>687.2220245550907</v>
       </c>
       <c r="V14" t="n">
-        <v>569.7271815385919</v>
+        <v>543.0487725792481</v>
       </c>
       <c r="W14" t="n">
-        <v>569.7271815385919</v>
+        <v>543.0487725792481</v>
       </c>
       <c r="X14" t="n">
-        <v>569.7271815385919</v>
+        <v>359.5796310220377</v>
       </c>
       <c r="Y14" t="n">
-        <v>569.7271815385919</v>
+        <v>359.5796310220377</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>132.9922566001717</v>
+        <v>101.6126190082598</v>
       </c>
       <c r="C15" t="n">
-        <v>123.5277239018906</v>
+        <v>92.14808630997892</v>
       </c>
       <c r="D15" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E15" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F15" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G15" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H15" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I15" t="n">
         <v>15.07983466553978</v>
@@ -5358,7 +5358,7 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K15" t="n">
-        <v>53.0431606814202</v>
+        <v>53.04316068142019</v>
       </c>
       <c r="L15" t="n">
         <v>170.3760798097944</v>
@@ -5370,37 +5370,37 @@
         <v>538.6656803998546</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188892</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769892</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9917332769892</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R15" t="n">
-        <v>753.9917332769892</v>
+        <v>753.991733276989</v>
       </c>
       <c r="S15" t="n">
-        <v>620.9067890412904</v>
+        <v>563.5897804292645</v>
       </c>
       <c r="T15" t="n">
-        <v>430.5048361935658</v>
+        <v>526.3951749217671</v>
       </c>
       <c r="U15" t="n">
-        <v>370.8282651392013</v>
+        <v>466.7186038674027</v>
       </c>
       <c r="V15" t="n">
-        <v>307.6962886115906</v>
+        <v>276.3166510196782</v>
       </c>
       <c r="W15" t="n">
-        <v>218.2454609106372</v>
+        <v>186.8658233187249</v>
       </c>
       <c r="X15" t="n">
-        <v>178.6852080960888</v>
+        <v>147.3055705041767</v>
       </c>
       <c r="Y15" t="n">
-        <v>132.9922566001717</v>
+        <v>101.6126190082598</v>
       </c>
     </row>
     <row r="16">
@@ -5416,67 +5416,67 @@
         <v>15.07983466553978</v>
       </c>
       <c r="D16" t="n">
-        <v>47.71579242887319</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E16" t="n">
-        <v>47.71579242887319</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F16" t="n">
-        <v>47.71579242887319</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G16" t="n">
-        <v>47.71579242887319</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H16" t="n">
-        <v>47.71579242887319</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I16" t="n">
-        <v>47.71579242887319</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J16" t="n">
-        <v>105.0453624333304</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K16" t="n">
-        <v>105.0453624333304</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L16" t="n">
-        <v>249.5818458591703</v>
+        <v>102.9691804726901</v>
       </c>
       <c r="M16" t="n">
-        <v>310.2828700192358</v>
+        <v>102.9691804726901</v>
       </c>
       <c r="N16" t="n">
-        <v>470.2946957351843</v>
+        <v>262.9810061886387</v>
       </c>
       <c r="O16" t="n">
-        <v>470.2946957351843</v>
+        <v>402.2436925423769</v>
       </c>
       <c r="P16" t="n">
-        <v>470.2946957351843</v>
+        <v>520.7166611426677</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426691</v>
+        <v>520.7166611426677</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633091</v>
+        <v>495.1795934633079</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015789</v>
+        <v>437.3111286015779</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578867</v>
+        <v>391.2370939578858</v>
       </c>
       <c r="U16" t="n">
-        <v>279.612555760414</v>
+        <v>279.6125557604133</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064925</v>
+        <v>211.975433506492</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117168</v>
+        <v>98.68003660117134</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099507</v>
+        <v>54.46671210099489</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553978</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961948</v>
+        <v>463.3923242961949</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040793</v>
+        <v>410.1015905040791</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210057</v>
+        <v>369.3697837210054</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718626</v>
+        <v>294.5907522718622</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940556</v>
+        <v>187.7709757940551</v>
       </c>
       <c r="G17" t="n">
         <v>65.15430707116217</v>
@@ -5516,49 +5516,49 @@
         <v>70.95335735993308</v>
       </c>
       <c r="K17" t="n">
-        <v>112.6515178608527</v>
+        <v>257.5663113459879</v>
       </c>
       <c r="L17" t="n">
-        <v>159.3723603416129</v>
+        <v>304.2871538267481</v>
       </c>
       <c r="M17" t="n">
-        <v>240.2342594285603</v>
+        <v>385.1490529136954</v>
       </c>
       <c r="N17" t="n">
-        <v>315.5621525642528</v>
+        <v>460.4769460493878</v>
       </c>
       <c r="O17" t="n">
-        <v>349.7827872569206</v>
+        <v>494.6975807420557</v>
       </c>
       <c r="P17" t="n">
-        <v>349.7827872569206</v>
+        <v>494.6975807420557</v>
       </c>
       <c r="Q17" t="n">
-        <v>536.3957412429754</v>
+        <v>494.6975807420557</v>
       </c>
       <c r="R17" t="n">
-        <v>637.9362055321469</v>
+        <v>596.2380450312271</v>
       </c>
       <c r="S17" t="n">
-        <v>707.1675751369978</v>
+        <v>665.469414636078</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1675751369978</v>
+        <v>739.7013862679715</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769892</v>
+        <v>753.991733276989</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879309</v>
+        <v>730.3229325879307</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235042</v>
+        <v>689.465566023504</v>
       </c>
       <c r="X17" t="n">
         <v>626.5008757530782</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.806030812204</v>
+        <v>540.8060308122039</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>250.5333042915615</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="C18" t="n">
-        <v>250.5333042915615</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="D18" t="n">
-        <v>250.5333042915615</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="E18" t="n">
-        <v>250.5333042915615</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="F18" t="n">
-        <v>250.5333042915615</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="G18" t="n">
-        <v>250.5333042915615</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="H18" t="n">
-        <v>123.5277239018906</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="I18" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K18" t="n">
-        <v>53.0431606814202</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097944</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137999</v>
+        <v>352.0527264137998</v>
       </c>
       <c r="N18" t="n">
         <v>538.6656803998546</v>
@@ -5610,34 +5610,34 @@
         <v>670.3666200188891</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769891</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0528889596548</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R18" t="n">
-        <v>610.9722821020006</v>
+        <v>639.2909158187158</v>
       </c>
       <c r="S18" t="n">
-        <v>610.9722821020006</v>
+        <v>448.8889629709914</v>
       </c>
       <c r="T18" t="n">
-        <v>440.935257139286</v>
+        <v>258.4870101232669</v>
       </c>
       <c r="U18" t="n">
-        <v>250.5333042915615</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="V18" t="n">
-        <v>250.5333042915615</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="W18" t="n">
-        <v>250.5333042915615</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="X18" t="n">
-        <v>250.5333042915615</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="Y18" t="n">
-        <v>250.5333042915615</v>
+        <v>68.08505727554238</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="C19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="D19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="E19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="F19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="G19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="H19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="I19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="J19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="K19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="L19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="M19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="N19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="O19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="P19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="S19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="T19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="U19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="V19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="W19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="X19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.07983466553978</v>
+        <v>753.991733276989</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961953</v>
+        <v>463.3923242961946</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040797</v>
+        <v>410.1015905040791</v>
       </c>
       <c r="D20" t="n">
         <v>369.3697837210055</v>
@@ -5738,64 +5738,64 @@
         <v>294.5907522718624</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940554</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116215</v>
+        <v>65.15430707116272</v>
       </c>
       <c r="H20" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95335735993309</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J20" t="n">
-        <v>257.566311345988</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K20" t="n">
-        <v>257.566311345988</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L20" t="n">
-        <v>304.2871538267482</v>
+        <v>201.6927886515946</v>
       </c>
       <c r="M20" t="n">
-        <v>385.1490529136955</v>
+        <v>282.5546877385419</v>
       </c>
       <c r="N20" t="n">
-        <v>460.476946049388</v>
+        <v>469.1676417245967</v>
       </c>
       <c r="O20" t="n">
-        <v>494.6975807420558</v>
+        <v>503.3882764172645</v>
       </c>
       <c r="P20" t="n">
-        <v>494.6975807420558</v>
+        <v>503.3882764172645</v>
       </c>
       <c r="Q20" t="n">
-        <v>563.7042339002535</v>
+        <v>637.9362055321467</v>
       </c>
       <c r="R20" t="n">
-        <v>563.7042339002535</v>
+        <v>637.9362055321467</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051044</v>
+        <v>707.1675751369976</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369979</v>
+        <v>707.1675751369976</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769893</v>
+        <v>753.991733276989</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879311</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235046</v>
+        <v>689.4655660235037</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530786</v>
+        <v>626.5008757530777</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122043</v>
+        <v>540.8060308122035</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>175.5075509482957</v>
+        <v>237.1072207238858</v>
       </c>
       <c r="C21" t="n">
-        <v>175.5075509482957</v>
+        <v>237.1072207238858</v>
       </c>
       <c r="D21" t="n">
-        <v>175.5075509482957</v>
+        <v>76.32710448491756</v>
       </c>
       <c r="E21" t="n">
-        <v>175.5075509482957</v>
+        <v>76.32710448491756</v>
       </c>
       <c r="F21" t="n">
-        <v>15.07983466553979</v>
+        <v>76.32710448491756</v>
       </c>
       <c r="G21" t="n">
-        <v>15.07983466553979</v>
+        <v>76.32710448491756</v>
       </c>
       <c r="H21" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I21" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J21" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142032</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3760798097945</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264138</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998549</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188893</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769893</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.052888959655</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R21" t="n">
-        <v>610.9722821020008</v>
+        <v>617.9111264193348</v>
       </c>
       <c r="S21" t="n">
-        <v>420.5703292542762</v>
+        <v>427.5091735716103</v>
       </c>
       <c r="T21" t="n">
-        <v>230.1683764065516</v>
+        <v>427.5091735716103</v>
       </c>
       <c r="U21" t="n">
-        <v>175.5075509482957</v>
+        <v>427.5091735716103</v>
       </c>
       <c r="V21" t="n">
-        <v>175.5075509482957</v>
+        <v>427.5091735716103</v>
       </c>
       <c r="W21" t="n">
-        <v>175.5075509482957</v>
+        <v>237.1072207238858</v>
       </c>
       <c r="X21" t="n">
-        <v>175.5075509482957</v>
+        <v>237.1072207238858</v>
       </c>
       <c r="Y21" t="n">
-        <v>175.5075509482957</v>
+        <v>237.1072207238858</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961948</v>
+        <v>463.3923242961941</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040792</v>
+        <v>410.1015905040786</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210056</v>
+        <v>369.3697837210052</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718624</v>
+        <v>294.5907522718619</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940549</v>
       </c>
       <c r="G23" t="n">
         <v>65.15430707116215</v>
@@ -5984,55 +5984,55 @@
         <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>38.41954622895921</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J23" t="n">
-        <v>38.41954622895921</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K23" t="n">
-        <v>38.41954622895921</v>
+        <v>201.6927886515946</v>
       </c>
       <c r="L23" t="n">
-        <v>85.14038870971942</v>
+        <v>388.3057426376494</v>
       </c>
       <c r="M23" t="n">
-        <v>166.0022877966668</v>
+        <v>469.1676417245967</v>
       </c>
       <c r="N23" t="n">
-        <v>241.3301809323593</v>
+        <v>544.4955348602891</v>
       </c>
       <c r="O23" t="n">
-        <v>275.5508156250271</v>
+        <v>578.7161695529569</v>
       </c>
       <c r="P23" t="n">
-        <v>275.5508156250271</v>
+        <v>578.7161695529569</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.1637696110819</v>
+        <v>632.935603505104</v>
       </c>
       <c r="R23" t="n">
-        <v>563.7042339002534</v>
+        <v>632.935603505104</v>
       </c>
       <c r="S23" t="n">
-        <v>632.9356035051043</v>
+        <v>632.935603505104</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1675751369978</v>
+        <v>707.1675751369976</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769892</v>
+        <v>753.991733276989</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879309</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235042</v>
+        <v>689.4655660235035</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530782</v>
+        <v>626.5008757530775</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122039</v>
+        <v>540.8060308122032</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>365.2722251715443</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="C24" t="n">
-        <v>175.859950904508</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="D24" t="n">
-        <v>15.07983466553978</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="E24" t="n">
-        <v>15.07983466553978</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="F24" t="n">
-        <v>15.07983466553978</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="G24" t="n">
         <v>15.07983466553978</v>
@@ -6069,13 +6069,13 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.0431606814202</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3760798097944</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137999</v>
+        <v>352.0527264137998</v>
       </c>
       <c r="N24" t="n">
         <v>538.6656803998546</v>
@@ -6084,34 +6084,34 @@
         <v>670.3666200188891</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769891</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9917332769891</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R24" t="n">
-        <v>753.9917332769891</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="S24" t="n">
-        <v>753.9917332769891</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="T24" t="n">
-        <v>753.9917332769891</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="U24" t="n">
-        <v>753.9917332769891</v>
+        <v>556.6509361119302</v>
       </c>
       <c r="V24" t="n">
-        <v>746.0761308669933</v>
+        <v>556.6509361119302</v>
       </c>
       <c r="W24" t="n">
-        <v>746.0761308669933</v>
+        <v>366.2489832642057</v>
       </c>
       <c r="X24" t="n">
-        <v>555.6741780192688</v>
+        <v>355.72886274016</v>
       </c>
       <c r="Y24" t="n">
-        <v>365.2722251715443</v>
+        <v>165.3269098924356</v>
       </c>
     </row>
     <row r="25">
@@ -6203,31 +6203,31 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874108</v>
+        <v>882.7966579874117</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942529</v>
+        <v>757.2538204942538</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350254</v>
+        <v>597.6637583350264</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471339</v>
+        <v>406.032951147135</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141565</v>
+        <v>198.6052517141577</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845025</v>
+        <v>63.71974859845018</v>
       </c>
       <c r="I26" t="n">
         <v>35.91669941514208</v>
       </c>
       <c r="J26" t="n">
-        <v>171.252799658955</v>
+        <v>171.2527996589546</v>
       </c>
       <c r="K26" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528777</v>
       </c>
       <c r="L26" t="n">
         <v>634.013527952399</v>
@@ -6257,7 +6257,7 @@
         <v>1772.589137514412</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
         <v>1627.073153621684</v>
@@ -6266,10 +6266,10 @@
         <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715704</v>
+        <v>1183.123159715705</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.91669941514208</v>
+        <v>357.1245319368662</v>
       </c>
       <c r="C27" t="n">
-        <v>35.91669941514208</v>
+        <v>357.1245319368662</v>
       </c>
       <c r="D27" t="n">
-        <v>35.91669941514208</v>
+        <v>196.344415697898</v>
       </c>
       <c r="E27" t="n">
-        <v>35.91669941514208</v>
+        <v>196.344415697898</v>
       </c>
       <c r="F27" t="n">
         <v>35.91669941514208</v>
@@ -6306,13 +6306,13 @@
         <v>35.91669941514208</v>
       </c>
       <c r="K27" t="n">
-        <v>73.8800254310225</v>
+        <v>73.88002543102249</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2129445593967</v>
+        <v>191.2129445593966</v>
       </c>
       <c r="M27" t="n">
-        <v>372.8895911634022</v>
+        <v>372.8895911634021</v>
       </c>
       <c r="N27" t="n">
         <v>577.7945675741614</v>
@@ -6333,22 +6333,22 @@
         <v>793.1206204512958</v>
       </c>
       <c r="T27" t="n">
-        <v>575.978273375043</v>
+        <v>791.6194355204987</v>
       </c>
       <c r="U27" t="n">
-        <v>551.9951228973787</v>
+        <v>767.6362850428344</v>
       </c>
       <c r="V27" t="n">
-        <v>308.9154048010128</v>
+        <v>740.1977290919241</v>
       </c>
       <c r="W27" t="n">
-        <v>49.78306257220709</v>
+        <v>470.7991598222154</v>
       </c>
       <c r="X27" t="n">
-        <v>45.91623033435894</v>
+        <v>466.9323275843673</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.91669941514208</v>
+        <v>357.1245319368662</v>
       </c>
     </row>
     <row r="28">
@@ -6379,52 +6379,52 @@
         <v>35.91669941514208</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91669941514208</v>
+        <v>84.0621640466177</v>
       </c>
       <c r="J28" t="n">
-        <v>35.91669941514208</v>
+        <v>84.0621640466177</v>
       </c>
       <c r="K28" t="n">
-        <v>180.906922096105</v>
+        <v>84.0621640466177</v>
       </c>
       <c r="L28" t="n">
-        <v>180.906922096105</v>
+        <v>263.5817689796816</v>
       </c>
       <c r="M28" t="n">
-        <v>180.906922096105</v>
+        <v>263.5817689796816</v>
       </c>
       <c r="N28" t="n">
-        <v>180.906922096105</v>
+        <v>263.5817689796816</v>
       </c>
       <c r="O28" t="n">
-        <v>180.906922096105</v>
+        <v>263.5817689796816</v>
       </c>
       <c r="P28" t="n">
-        <v>180.906922096105</v>
+        <v>263.5817689796816</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.162514176009</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.162514176009</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909797</v>
+        <v>243.9874698909792</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239877</v>
+        <v>233.6068558239872</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032153</v>
+        <v>157.6757382032149</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259941</v>
+        <v>125.7320365259938</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737348</v>
+        <v>48.1300601973733</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389712</v>
+        <v>39.61015627389703</v>
       </c>
       <c r="Y28" t="n">
         <v>35.91669941514208</v>
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.898422489612</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874117</v>
+        <v>882.7966579874109</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942538</v>
+        <v>757.253820494253</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350263</v>
+        <v>597.6637583350255</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471348</v>
+        <v>406.032951147134</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141575</v>
+        <v>198.6052517141567</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845068</v>
+        <v>63.71974859845025</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
-        <v>171.252799658955</v>
+        <v>171.2527996589549</v>
       </c>
       <c r="K29" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528779</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523997</v>
+        <v>634.0135279523989</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581081</v>
+        <v>926.2253300581073</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.903126212561</v>
+        <v>1212.90312621256</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P29" t="n">
-        <v>1654.882514315173</v>
+        <v>1654.882514315172</v>
       </c>
       <c r="Q29" t="n">
         <v>1777.417797666886</v>
@@ -6488,25 +6488,25 @@
         <v>1795.834970757104</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.660986883926</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.589137514412</v>
+        <v>1772.589137514411</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621685</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347174</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>196.344415697898</v>
+        <v>234.3527902023603</v>
       </c>
       <c r="C30" t="n">
-        <v>196.344415697898</v>
+        <v>234.3527902023603</v>
       </c>
       <c r="D30" t="n">
-        <v>196.344415697898</v>
+        <v>234.3527902023603</v>
       </c>
       <c r="E30" t="n">
-        <v>196.344415697898</v>
+        <v>234.3527902023603</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91669941514208</v>
+        <v>234.3527902023603</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91669941514208</v>
+        <v>234.3527902023603</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514208</v>
+        <v>144.3645886514929</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
-        <v>73.8800254310225</v>
+        <v>73.88002543102247</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2129445593967</v>
+        <v>191.2129445593966</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8895911634022</v>
+        <v>372.8895911634021</v>
       </c>
       <c r="N30" t="n">
         <v>577.7945675741614</v>
@@ -6561,31 +6561,31 @@
         <v>793.1206204512958</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512958</v>
+        <v>786.1817761339615</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512958</v>
+        <v>786.1817761339615</v>
       </c>
       <c r="S30" t="n">
-        <v>748.1734016294993</v>
+        <v>786.1817761339615</v>
       </c>
       <c r="T30" t="n">
-        <v>531.0310545532465</v>
+        <v>569.0394290577087</v>
       </c>
       <c r="U30" t="n">
-        <v>507.0479040755821</v>
+        <v>545.0562785800444</v>
       </c>
       <c r="V30" t="n">
-        <v>263.9681859792162</v>
+        <v>517.6177226291339</v>
       </c>
       <c r="W30" t="n">
-        <v>210.210778854963</v>
+        <v>248.2191533594253</v>
       </c>
       <c r="X30" t="n">
-        <v>206.3439466171149</v>
+        <v>244.3523211215771</v>
       </c>
       <c r="Y30" t="n">
-        <v>196.344415697898</v>
+        <v>234.3527902023603</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91669941514208</v>
+        <v>103.5357786856994</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91669941514208</v>
+        <v>103.5357786856994</v>
       </c>
       <c r="F31" t="n">
-        <v>109.7289890376408</v>
+        <v>103.5357786856994</v>
       </c>
       <c r="G31" t="n">
-        <v>109.7289890376408</v>
+        <v>103.5357786856994</v>
       </c>
       <c r="H31" t="n">
-        <v>109.7289890376408</v>
+        <v>150.7195280263404</v>
       </c>
       <c r="I31" t="n">
-        <v>109.7289890376408</v>
+        <v>150.7195280263404</v>
       </c>
       <c r="J31" t="n">
-        <v>109.7289890376408</v>
+        <v>150.7195280263404</v>
       </c>
       <c r="K31" t="n">
-        <v>109.7289890376408</v>
+        <v>150.7195280263404</v>
       </c>
       <c r="L31" t="n">
-        <v>109.7289890376408</v>
+        <v>150.7195280263404</v>
       </c>
       <c r="M31" t="n">
-        <v>109.7289890376408</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="N31" t="n">
-        <v>109.7289890376408</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="O31" t="n">
-        <v>109.7289890376408</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="P31" t="n">
-        <v>263.1850791451554</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="Q31" t="n">
         <v>266.1625141760096</v>
@@ -6646,25 +6646,25 @@
         <v>266.1625141760096</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909797</v>
+        <v>243.9874698909796</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239877</v>
+        <v>233.6068558239876</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032153</v>
+        <v>157.6757382032152</v>
       </c>
       <c r="V31" t="n">
         <v>125.7320365259941</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737348</v>
+        <v>48.13006019737347</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389712</v>
+        <v>39.6101562738971</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510279</v>
+        <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806694</v>
+        <v>877.5242945806688</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601016</v>
+        <v>752.8175276601011</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734643</v>
+        <v>594.0635360734639</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581629</v>
+        <v>403.2687994581626</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977757</v>
+        <v>196.6771705977753</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465906</v>
+        <v>62.62773805465893</v>
       </c>
       <c r="I32" t="n">
         <v>35.660759443941</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559494</v>
+        <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
-        <v>377.325708018068</v>
+        <v>377.3257080180682</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857847</v>
+        <v>635.5365386415842</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596885</v>
+        <v>928.5677735154882</v>
       </c>
       <c r="N32" t="n">
-        <v>1196.828396579725</v>
+        <v>1216.065002438137</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059349</v>
+        <v>1462.454972917762</v>
       </c>
       <c r="P32" t="n">
-        <v>1640.446650218728</v>
+        <v>1659.683256077141</v>
       </c>
       <c r="Q32" t="n">
-        <v>1763.801366338637</v>
+        <v>1783.03797219705</v>
       </c>
       <c r="R32" t="n">
         <v>1783.03797219705</v>
@@ -6731,16 +6731,16 @@
         <v>1761.464280099538</v>
       </c>
       <c r="U32" t="n">
-        <v>1725.264198178544</v>
+        <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.620437351992</v>
+        <v>1617.620437351991</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.788110650071</v>
+        <v>1492.78811065007</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.848460242151</v>
+        <v>1345.84846024215</v>
       </c>
       <c r="Y32" t="n">
         <v>1176.178655163782</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>498.7985893480101</v>
+        <v>196.0884757266969</v>
       </c>
       <c r="C33" t="n">
-        <v>309.3863150809739</v>
+        <v>196.0884757266969</v>
       </c>
       <c r="D33" t="n">
-        <v>309.3863150809739</v>
+        <v>196.0884757266969</v>
       </c>
       <c r="E33" t="n">
-        <v>185.9078346708368</v>
+        <v>196.0884757266969</v>
       </c>
       <c r="F33" t="n">
-        <v>185.9078346708368</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G33" t="n">
         <v>35.660759443941</v>
@@ -6807,22 +6807,22 @@
         <v>792.8646804800948</v>
       </c>
       <c r="T33" t="n">
-        <v>792.1995661218875</v>
+        <v>792.1995661218876</v>
       </c>
       <c r="U33" t="n">
-        <v>769.0524862168133</v>
+        <v>769.0524862168136</v>
       </c>
       <c r="V33" t="n">
-        <v>742.4500008384931</v>
+        <v>656.2171199352251</v>
       </c>
       <c r="W33" t="n">
-        <v>689.52866428683</v>
+        <v>386.8185506655165</v>
       </c>
       <c r="X33" t="n">
-        <v>686.4979026215719</v>
+        <v>383.7877890002586</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.3344422749452</v>
+        <v>374.624328653632</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.9893437725791</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C34" t="n">
-        <v>71.9893437725791</v>
+        <v>83.03748606864499</v>
       </c>
       <c r="D34" t="n">
-        <v>71.9893437725791</v>
+        <v>83.03748606864499</v>
       </c>
       <c r="E34" t="n">
-        <v>71.9893437725791</v>
+        <v>83.03748606864499</v>
       </c>
       <c r="F34" t="n">
-        <v>71.9893437725791</v>
+        <v>83.03748606864499</v>
       </c>
       <c r="G34" t="n">
-        <v>71.9893437725791</v>
+        <v>83.03748606864499</v>
       </c>
       <c r="H34" t="n">
-        <v>71.9893437725791</v>
+        <v>83.03748606864499</v>
       </c>
       <c r="I34" t="n">
-        <v>71.9893437725791</v>
+        <v>83.03748606864499</v>
       </c>
       <c r="J34" t="n">
-        <v>71.9893437725791</v>
+        <v>83.03748606864499</v>
       </c>
       <c r="K34" t="n">
-        <v>71.9893437725791</v>
+        <v>83.03748606864499</v>
       </c>
       <c r="L34" t="n">
-        <v>71.9893437725791</v>
+        <v>83.03748606864499</v>
       </c>
       <c r="M34" t="n">
-        <v>71.9893437725791</v>
+        <v>83.03748606864499</v>
       </c>
       <c r="N34" t="n">
-        <v>71.9893437725791</v>
+        <v>83.03748606864499</v>
       </c>
       <c r="O34" t="n">
-        <v>71.9893437725791</v>
+        <v>83.03748606864499</v>
       </c>
       <c r="P34" t="n">
-        <v>226.2648666482893</v>
+        <v>237.3130089443553</v>
       </c>
       <c r="Q34" t="n">
-        <v>249.2804059537988</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966775</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842378</v>
+        <v>238.7151064842371</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898359</v>
+        <v>229.1705629898353</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416536</v>
+        <v>154.0755159416532</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370226</v>
+        <v>122.9678848370222</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099212</v>
+        <v>46.20197908099188</v>
       </c>
       <c r="X34" t="n">
-        <v>38.5181457301059</v>
+        <v>38.51814573010578</v>
       </c>
       <c r="Y34" t="n">
         <v>35.660759443941</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361097</v>
+        <v>623.0190675361092</v>
       </c>
       <c r="C35" t="n">
-        <v>544.083381551352</v>
+        <v>544.0833815513515</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756364</v>
+        <v>477.7066225756359</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338511</v>
+        <v>377.2826389338506</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634022</v>
+        <v>244.8179102634017</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786678</v>
+        <v>96.55628934786677</v>
       </c>
       <c r="H35" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I35" t="n">
         <v>51.57576979998706</v>
@@ -6938,31 +6938,31 @@
         <v>244.900543598745</v>
       </c>
       <c r="K35" t="n">
-        <v>255.9042158981349</v>
+        <v>254.9068407865501</v>
       </c>
       <c r="L35" t="n">
-        <v>302.6250583788951</v>
+        <v>301.6276832673103</v>
       </c>
       <c r="M35" t="n">
-        <v>560.4812596552235</v>
+        <v>382.4895823542577</v>
       </c>
       <c r="N35" t="n">
-        <v>635.809152790916</v>
+        <v>457.8174754899501</v>
       </c>
       <c r="O35" t="n">
-        <v>670.0297874835837</v>
+        <v>492.038110182618</v>
       </c>
       <c r="P35" t="n">
-        <v>670.0297874835837</v>
+        <v>746.4356341287462</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5537443902421</v>
+        <v>926.9595910354045</v>
       </c>
       <c r="R35" t="n">
-        <v>926.959591035405</v>
+        <v>926.9595910354045</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962473</v>
+        <v>971.0563429962468</v>
       </c>
       <c r="T35" t="n">
         <v>1020.153696984132</v>
@@ -6971,16 +6971,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984142</v>
+        <v>992.5294845984138</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413453</v>
+        <v>926.0271658413449</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782772</v>
+        <v>837.4175233782768</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447608</v>
+        <v>726.0777262447604</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>515.607901149912</v>
+        <v>231.2917800134608</v>
       </c>
       <c r="C36" t="n">
-        <v>515.607901149912</v>
+        <v>231.2917800134608</v>
       </c>
       <c r="D36" t="n">
-        <v>354.8277849109438</v>
+        <v>231.2917800134608</v>
       </c>
       <c r="E36" t="n">
-        <v>181.2645810323582</v>
+        <v>231.2917800134608</v>
       </c>
       <c r="F36" t="n">
-        <v>20.8368647496023</v>
+        <v>231.2917800134608</v>
       </c>
       <c r="G36" t="n">
-        <v>20.8368647496023</v>
+        <v>147.8424451392731</v>
       </c>
       <c r="H36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548271</v>
+        <v>58.8001907654827</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1331098938569</v>
+        <v>176.1331098938568</v>
       </c>
       <c r="M36" t="n">
         <v>357.8097564978623</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086216</v>
+        <v>562.7147329086215</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276561</v>
+        <v>694.4156725276559</v>
       </c>
       <c r="P36" t="n">
-        <v>778.040785785756</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.040785785756</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="R36" t="n">
-        <v>641.9601789281019</v>
+        <v>641.9601789281018</v>
       </c>
       <c r="S36" t="n">
-        <v>515.607901149912</v>
+        <v>448.4341270897136</v>
       </c>
       <c r="T36" t="n">
-        <v>515.607901149912</v>
+        <v>231.2917800134608</v>
       </c>
       <c r="U36" t="n">
-        <v>515.607901149912</v>
+        <v>231.2917800134608</v>
       </c>
       <c r="V36" t="n">
-        <v>515.607901149912</v>
+        <v>231.2917800134608</v>
       </c>
       <c r="W36" t="n">
-        <v>515.607901149912</v>
+        <v>231.2917800134608</v>
       </c>
       <c r="X36" t="n">
-        <v>515.607901149912</v>
+        <v>231.2917800134608</v>
       </c>
       <c r="Y36" t="n">
-        <v>515.607901149912</v>
+        <v>231.2917800134608</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="C37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="D37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="E37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="F37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411087</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078069</v>
+        <v>1025.078198376784</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078069</v>
+        <v>1025.078198376784</v>
       </c>
       <c r="W37" t="n">
-        <v>20.8368647496023</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="X37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
       <c r="Y37" t="n">
-        <v>56.03780166411087</v>
+        <v>1006.642300565606</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361102</v>
+        <v>623.0190675361098</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513525</v>
+        <v>544.0833815513521</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756367</v>
+        <v>477.7066225756363</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2826389338514</v>
+        <v>377.282638933851</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634022</v>
+        <v>244.8179102634017</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786678</v>
+        <v>96.55628934786677</v>
       </c>
       <c r="H38" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I38" t="n">
         <v>51.57576979998706</v>
       </c>
       <c r="J38" t="n">
-        <v>244.900543598745</v>
+        <v>51.57576979998706</v>
       </c>
       <c r="K38" t="n">
-        <v>432.898518087516</v>
+        <v>193.8785063635038</v>
       </c>
       <c r="L38" t="n">
-        <v>479.6193605682762</v>
+        <v>240.599348844264</v>
       </c>
       <c r="M38" t="n">
-        <v>560.4812596552235</v>
+        <v>498.4555501205924</v>
       </c>
       <c r="N38" t="n">
-        <v>635.809152790916</v>
+        <v>756.3117513969207</v>
       </c>
       <c r="O38" t="n">
-        <v>670.0297874835837</v>
+        <v>790.5323860895885</v>
       </c>
       <c r="P38" t="n">
-        <v>670.0297874835837</v>
+        <v>790.5323860895885</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5537443902421</v>
+        <v>971.0563429962468</v>
       </c>
       <c r="R38" t="n">
-        <v>926.959591035405</v>
+        <v>971.0563429962468</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0563429962473</v>
+        <v>971.0563429962468</v>
       </c>
       <c r="T38" t="n">
         <v>1020.153696984132</v>
@@ -7208,16 +7208,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984147</v>
+        <v>992.5294845984142</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413458</v>
+        <v>926.0271658413453</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782777</v>
+        <v>837.4175233782772</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447614</v>
+        <v>726.0777262447609</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>182.2899765959557</v>
+        <v>295.3367550662701</v>
       </c>
       <c r="C39" t="n">
-        <v>182.2899765959557</v>
+        <v>194.4000686281878</v>
       </c>
       <c r="D39" t="n">
-        <v>182.2899765959557</v>
+        <v>194.4000686281878</v>
       </c>
       <c r="E39" t="n">
-        <v>182.2899765959557</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F39" t="n">
-        <v>182.2899765959557</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G39" t="n">
-        <v>182.2899765959557</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H39" t="n">
-        <v>182.2899765959557</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548271</v>
+        <v>58.8001907654827</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1331098938569</v>
+        <v>176.1331098938568</v>
       </c>
       <c r="M39" t="n">
         <v>357.8097564978623</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086216</v>
+        <v>562.7147329086215</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276561</v>
+        <v>694.4156725276559</v>
       </c>
       <c r="P39" t="n">
-        <v>778.040785785756</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.040785785756</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="R39" t="n">
-        <v>641.9601789281019</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="S39" t="n">
-        <v>641.9601789281019</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="T39" t="n">
-        <v>641.9601789281019</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="U39" t="n">
-        <v>425.3696946923217</v>
+        <v>538.4164731626361</v>
       </c>
       <c r="V39" t="n">
-        <v>182.2899765959557</v>
+        <v>295.3367550662701</v>
       </c>
       <c r="W39" t="n">
-        <v>182.2899765959557</v>
+        <v>295.3367550662701</v>
       </c>
       <c r="X39" t="n">
-        <v>182.2899765959557</v>
+        <v>295.3367550662701</v>
       </c>
       <c r="Y39" t="n">
-        <v>182.2899765959557</v>
+        <v>295.3367550662701</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.8368647496023</v>
+        <v>1023.407339668936</v>
       </c>
       <c r="C40" t="n">
-        <v>20.8368647496023</v>
+        <v>1023.407339668936</v>
       </c>
       <c r="D40" t="n">
-        <v>20.8368647496023</v>
+        <v>1023.407339668936</v>
       </c>
       <c r="E40" t="n">
-        <v>20.8368647496023</v>
+        <v>1023.407339668936</v>
       </c>
       <c r="F40" t="n">
-        <v>20.8368647496023</v>
+        <v>1023.407339668936</v>
       </c>
       <c r="G40" t="n">
-        <v>20.8368647496023</v>
+        <v>1023.407339668936</v>
       </c>
       <c r="H40" t="n">
-        <v>20.8368647496023</v>
+        <v>1031.927625042344</v>
       </c>
       <c r="I40" t="n">
-        <v>20.8368647496023</v>
+        <v>1031.927625042344</v>
       </c>
       <c r="J40" t="n">
-        <v>20.8368647496023</v>
+        <v>1031.927625042344</v>
       </c>
       <c r="K40" t="n">
-        <v>20.8368647496023</v>
+        <v>1031.927625042344</v>
       </c>
       <c r="L40" t="n">
-        <v>20.8368647496023</v>
+        <v>1031.927625042344</v>
       </c>
       <c r="M40" t="n">
-        <v>20.8368647496023</v>
+        <v>1031.927625042344</v>
       </c>
       <c r="N40" t="n">
-        <v>20.8368647496023</v>
+        <v>1031.927625042344</v>
       </c>
       <c r="O40" t="n">
-        <v>20.8368647496023</v>
+        <v>1031.927625042344</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03780166411087</v>
+        <v>1031.927625042344</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411087</v>
+        <v>1031.927625042344</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411087</v>
+        <v>1031.927625042344</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03780166411087</v>
+        <v>1031.927625042344</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411087</v>
+        <v>1031.927625042344</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078069</v>
+        <v>1015.162585939014</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078069</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="W40" t="n">
-        <v>20.8368647496023</v>
+        <v>1023.407339668936</v>
       </c>
       <c r="X40" t="n">
-        <v>20.8368647496023</v>
+        <v>1023.407339668936</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.8368647496023</v>
+        <v>1023.407339668936</v>
       </c>
     </row>
     <row r="41">
@@ -7415,22 +7415,22 @@
         <v>422.5915955308619</v>
       </c>
       <c r="L41" t="n">
-        <v>523.4617675668866</v>
+        <v>469.3124380116221</v>
       </c>
       <c r="M41" t="n">
-        <v>604.3236666538339</v>
+        <v>788.7740086218907</v>
       </c>
       <c r="N41" t="n">
-        <v>679.6515597895263</v>
+        <v>864.1019017575832</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4718660055154</v>
+        <v>1136.922207973572</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.130484901259</v>
+        <v>1221.797426496037</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757532</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="R41" t="n">
         <v>1371.582478352311</v>
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>349.2738080057295</v>
+        <v>362.0568956453468</v>
       </c>
       <c r="C42" t="n">
-        <v>349.2738080057295</v>
+        <v>362.0568956453468</v>
       </c>
       <c r="D42" t="n">
-        <v>188.4936917667613</v>
+        <v>362.0568956453468</v>
       </c>
       <c r="E42" t="n">
         <v>188.4936917667613</v>
@@ -7518,22 +7518,22 @@
         <v>785.269896520159</v>
       </c>
       <c r="T42" t="n">
-        <v>568.1275494439062</v>
+        <v>785.269896520159</v>
       </c>
       <c r="U42" t="n">
-        <v>568.1275494439062</v>
+        <v>607.5192479695954</v>
       </c>
       <c r="V42" t="n">
-        <v>568.1275494439062</v>
+        <v>607.5192479695954</v>
       </c>
       <c r="W42" t="n">
-        <v>349.2738080057295</v>
+        <v>581.5648900286504</v>
       </c>
       <c r="X42" t="n">
-        <v>349.2738080057295</v>
+        <v>362.0568956453468</v>
       </c>
       <c r="Y42" t="n">
-        <v>349.2738080057295</v>
+        <v>362.0568956453468</v>
       </c>
     </row>
     <row r="43">
@@ -7552,19 +7552,19 @@
         <v>28.06597548400537</v>
       </c>
       <c r="E43" t="n">
-        <v>126.4062672072239</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J43" t="n">
         <v>130.1336235606951</v>
@@ -7634,7 +7634,7 @@
         <v>478.6008376706559</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660725</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
@@ -7652,19 +7652,19 @@
         <v>422.5915955308619</v>
       </c>
       <c r="L44" t="n">
-        <v>523.4617675668866</v>
+        <v>469.3124380116221</v>
       </c>
       <c r="M44" t="n">
-        <v>604.3236666538339</v>
+        <v>739.1676658825298</v>
       </c>
       <c r="N44" t="n">
-        <v>679.6515597895263</v>
+        <v>1053.095230541544</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4718660055154</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.130484901259</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="Q44" t="n">
         <v>1325.915536757532</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>217.4782497510417</v>
+        <v>477.304783958998</v>
       </c>
       <c r="C45" t="n">
-        <v>28.06597548400537</v>
+        <v>477.304783958998</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06597548400537</v>
+        <v>316.5246677200297</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400537</v>
+        <v>316.5246677200297</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400537</v>
+        <v>316.5246677200297</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400537</v>
+        <v>316.5246677200297</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400537</v>
+        <v>189.5190873303588</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400537</v>
+        <v>81.07119809400798</v>
       </c>
       <c r="J45" t="n">
         <v>28.06597548400537</v>
@@ -7746,31 +7746,31 @@
         <v>785.2698965201589</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201589</v>
+        <v>642.2504453451704</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2698965201589</v>
+        <v>642.2504453451704</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2698965201589</v>
+        <v>642.2504453451704</v>
       </c>
       <c r="U45" t="n">
-        <v>785.2698965201589</v>
+        <v>642.2504453451704</v>
       </c>
       <c r="V45" t="n">
-        <v>785.2698965201589</v>
+        <v>642.2504453451704</v>
       </c>
       <c r="W45" t="n">
-        <v>615.5220970612804</v>
+        <v>477.304783958998</v>
       </c>
       <c r="X45" t="n">
-        <v>396.0141026779768</v>
+        <v>477.304783958998</v>
       </c>
       <c r="Y45" t="n">
-        <v>396.0141026779768</v>
+        <v>477.304783958998</v>
       </c>
     </row>
     <row r="46">
@@ -7795,40 +7795,40 @@
         <v>28.06597548400537</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400537</v>
+        <v>32.14665416635523</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400537</v>
+        <v>32.14665416635523</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400537</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06597548400537</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06597548400537</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06597548400537</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="M46" t="n">
-        <v>28.06597548400537</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="N46" t="n">
-        <v>28.06597548400537</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="O46" t="n">
-        <v>28.06597548400537</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="P46" t="n">
-        <v>28.06597548400537</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="Q46" t="n">
-        <v>75.85388492395012</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="R46" t="n">
-        <v>113.0578949031936</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="S46" t="n">
         <v>113.0578949031936</v>
@@ -8532,16 +8532,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>171.3658051887314</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.1063303597423</v>
       </c>
       <c r="M9" t="n">
-        <v>176.4735084131581</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
-        <v>163.4361383816801</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
         <v>177.1666678622357</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9015,10 +9015,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O15" t="n">
-        <v>255.2227828913208</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9252,13 +9252,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>206.3638740786792</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,13 +9483,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>240.3045437566415</v>
       </c>
       <c r="M21" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9726,13 +9726,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>206.3638740786792</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.441042905518344</v>
+        <v>7.441042905518287</v>
       </c>
       <c r="C11" t="n">
-        <v>172.0572332281111</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891596</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085685</v>
+        <v>85.83869654689674</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869458</v>
+        <v>225.0509854869457</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033356</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554829</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240823</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.36873040538038</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958206</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726992</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416384</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y11" t="n">
-        <v>165.6230436784662</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247656</v>
+        <v>195.9389762247655</v>
       </c>
       <c r="C14" t="n">
-        <v>172.0572332281111</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891596</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E14" t="n">
-        <v>4.832714589321171</v>
+        <v>4.832714589321057</v>
       </c>
       <c r="F14" t="n">
-        <v>96.18268491976275</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G14" t="n">
-        <v>240.6899088095809</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>79.1777744442051</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.3176172467514</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00227733958189</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560843</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7481996726992</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416384</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1373032653822</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="15">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>927503.3971236551</v>
+        <v>927503.3971236553</v>
       </c>
     </row>
     <row r="7">
@@ -26314,22 +26314,22 @@
         <v>507110.8972264642</v>
       </c>
       <c r="C2" t="n">
-        <v>507110.8972264644</v>
+        <v>507110.8972264643</v>
       </c>
       <c r="D2" t="n">
         <v>507403.7565385113</v>
       </c>
       <c r="E2" t="n">
-        <v>436847.8715307524</v>
+        <v>436847.8715307522</v>
       </c>
       <c r="F2" t="n">
-        <v>436847.8715307523</v>
+        <v>436847.871530752</v>
       </c>
       <c r="G2" t="n">
         <v>508138.1655936585</v>
       </c>
       <c r="H2" t="n">
-        <v>508138.1655936584</v>
+        <v>508138.1655936585</v>
       </c>
       <c r="I2" t="n">
         <v>508138.1655936585</v>
@@ -26338,7 +26338,7 @@
         <v>508138.1655936585</v>
       </c>
       <c r="K2" t="n">
-        <v>508138.1655936584</v>
+        <v>508138.1655936583</v>
       </c>
       <c r="L2" t="n">
         <v>508138.1655936585</v>
@@ -26347,10 +26347,10 @@
         <v>508138.1655936581</v>
       </c>
       <c r="N2" t="n">
-        <v>508138.1655936581</v>
+        <v>508138.1655936582</v>
       </c>
       <c r="O2" t="n">
-        <v>508138.1655936587</v>
+        <v>508138.1655936586</v>
       </c>
       <c r="P2" t="n">
         <v>508138.1655936587</v>
@@ -26372,13 +26372,13 @@
         <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.1151787142</v>
+        <v>279126.1151787143</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913338</v>
+        <v>95439.52541913325</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143496.2830068792</v>
+        <v>143496.2830068793</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262477</v>
+        <v>96101.69331262473</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232284</v>
+        <v>46197.36629232275</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.9148592436</v>
+        <v>72254.91485924379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>414232.6134785514</v>
       </c>
       <c r="E4" t="n">
-        <v>302020.8786145411</v>
+        <v>302020.8786145412</v>
       </c>
       <c r="F4" t="n">
-        <v>302020.8786145411</v>
+        <v>302020.8786145413</v>
       </c>
       <c r="G4" t="n">
         <v>372628.7466577631</v>
@@ -26436,10 +26436,10 @@
         <v>372628.7466577631</v>
       </c>
       <c r="I4" t="n">
-        <v>372628.7466577631</v>
+        <v>372628.746657763</v>
       </c>
       <c r="J4" t="n">
-        <v>373436.5296138824</v>
+        <v>373436.5296138825</v>
       </c>
       <c r="K4" t="n">
         <v>373436.5296138824</v>
@@ -26448,7 +26448,7 @@
         <v>373421.7396465039</v>
       </c>
       <c r="M4" t="n">
-        <v>372611.8022731854</v>
+        <v>372611.8022731853</v>
       </c>
       <c r="N4" t="n">
         <v>372611.8022731853</v>
@@ -26479,31 +26479,31 @@
         <v>28642.95693774779</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.95693774779</v>
+        <v>28642.9569377478</v>
       </c>
       <c r="G5" t="n">
-        <v>38672.33876582419</v>
+        <v>38672.33876582418</v>
       </c>
       <c r="H5" t="n">
-        <v>38672.33876582419</v>
+        <v>38672.33876582418</v>
       </c>
       <c r="I5" t="n">
-        <v>38672.33876582419</v>
+        <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
         <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.67722016352</v>
+        <v>47449.67722016351</v>
       </c>
       <c r="L5" t="n">
         <v>47324.74758284811</v>
       </c>
       <c r="M5" t="n">
-        <v>40913.29559868731</v>
+        <v>40913.2955986873</v>
       </c>
       <c r="N5" t="n">
-        <v>40913.29559868731</v>
+        <v>40913.2955986873</v>
       </c>
       <c r="O5" t="n">
         <v>43797.12782887323</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59114.67105962904</v>
+        <v>59110.20467542385</v>
       </c>
       <c r="C6" t="n">
-        <v>59114.67105962916</v>
+        <v>59110.20467542385</v>
       </c>
       <c r="D6" t="n">
-        <v>58355.2457661697</v>
+        <v>58352.05268332124</v>
       </c>
       <c r="E6" t="n">
-        <v>-172942.0792002507</v>
+        <v>-173252.0370005245</v>
       </c>
       <c r="F6" t="n">
-        <v>106184.0359784633</v>
+        <v>105874.0781781894</v>
       </c>
       <c r="G6" t="n">
-        <v>1397.554750937816</v>
+        <v>1397.554750937881</v>
       </c>
       <c r="H6" t="n">
-        <v>96837.08017007113</v>
+        <v>96837.08017007119</v>
       </c>
       <c r="I6" t="n">
-        <v>96837.08017007119</v>
+        <v>96837.08017007125</v>
       </c>
       <c r="J6" t="n">
-        <v>-56244.32424726663</v>
+        <v>-56244.32424726686</v>
       </c>
       <c r="K6" t="n">
-        <v>87251.95875961252</v>
+        <v>87251.95875961246</v>
       </c>
       <c r="L6" t="n">
-        <v>-8710.01494831829</v>
+        <v>-8710.014948318232</v>
       </c>
       <c r="M6" t="n">
-        <v>48415.70142946253</v>
+        <v>48415.70142946266</v>
       </c>
       <c r="N6" t="n">
-        <v>94613.06772178545</v>
+        <v>94613.06772178553</v>
       </c>
       <c r="O6" t="n">
-        <v>19087.25796863891</v>
+        <v>19087.25796863862</v>
       </c>
       <c r="P6" t="n">
         <v>91342.17282788252</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G2" t="n">
         <v>297.4476709269844</v>
@@ -26707,13 +26707,13 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K2" t="n">
         <v>213.4847505240009</v>
       </c>
       <c r="L2" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M2" t="n">
         <v>272.0591682562687</v>
@@ -26796,34 +26796,34 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="F4" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="G4" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="H4" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
-        <v>448.958742689276</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9587426892761</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492626</v>
+        <v>445.7594930492624</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="O4" t="n">
         <v>350.8246935500671</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739167</v>
+        <v>119.2994067739166</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.1853437500842</v>
+        <v>94.1853437500844</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.127116640781</v>
+        <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540355</v>
+        <v>57.74670786540344</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929149</v>
+        <v>63.13594470929169</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003833</v>
+        <v>90.36388418003844</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739167</v>
+        <v>119.2994067739166</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.1853437500842</v>
+        <v>94.1853437500844</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E8" t="n">
-        <v>371.6088275148272</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27916,7 +27916,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X8" t="n">
-        <v>359.7827142947061</v>
+        <v>359.9126297478971</v>
       </c>
       <c r="Y8" t="n">
         <v>382.2855674184499</v>
@@ -27944,7 +27944,7 @@
         <v>156.0055400370045</v>
       </c>
       <c r="G9" t="n">
-        <v>145.7629687550784</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
         <v>127.8372169228968</v>
@@ -27974,22 +27974,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>31.44843229210258</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>145.0317031582867</v>
       </c>
       <c r="S9" t="n">
-        <v>192.4336248079265</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>215.8480604164874</v>
+        <v>212.6488107764739</v>
       </c>
       <c r="U9" t="n">
         <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
-        <v>237.4496712753888</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
         <v>266.7045835770116</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530677</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K11" t="n">
-        <v>6.785212809893841</v>
+        <v>108.1518579983672</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,34 +28129,34 @@
         <v>153.9316356498858</v>
       </c>
       <c r="P11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="12">
@@ -28169,28 +28169,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530677</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>12.6453853805744</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H12" t="n">
-        <v>125.7355245857741</v>
+        <v>26.47515079692749</v>
       </c>
       <c r="I12" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R12" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W12" t="n">
-        <v>178.1482641530677</v>
+        <v>78.20665025776435</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="13">
@@ -28245,16 +28245,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E13" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -28266,55 +28266,55 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I13" t="n">
-        <v>164.852968067965</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2396075829089</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K13" t="n">
-        <v>178.1482641530677</v>
+        <v>120.0038249743588</v>
       </c>
       <c r="L13" t="n">
-        <v>71.77333626590425</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="M13" t="n">
-        <v>178.1482641530677</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N13" t="n">
-        <v>16.5201573692813</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O13" t="n">
         <v>37.47888399777676</v>
       </c>
       <c r="P13" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K14" t="n">
-        <v>6.727192146300887</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L14" t="n">
-        <v>141.3051631366612</v>
+        <v>23.19778368218499</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N14" t="n">
-        <v>101.1210202924633</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.7117370374219</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="15">
@@ -28406,10 +28406,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>82.87474594858379</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28424,7 +28424,7 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J15" t="n">
         <v>52.47517038390257</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874160998</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R15" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S15" t="n">
-        <v>59.83669652666251</v>
+        <v>3.092858000757068</v>
       </c>
       <c r="T15" t="n">
-        <v>26.47299028624298</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530677</v>
+        <v>52.15098759615501</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="16">
@@ -28488,7 +28488,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.1482641530677</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28506,52 +28506,52 @@
         <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
-        <v>178.1482641530677</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K16" t="n">
-        <v>67.02998013918995</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L16" t="n">
-        <v>178.1482641530677</v>
+        <v>120.9289332250983</v>
       </c>
       <c r="M16" t="n">
-        <v>86.53103121714139</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="O16" t="n">
-        <v>37.47888399777676</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="P16" t="n">
-        <v>58.47859890024884</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.1482641530677</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="17">
@@ -28585,10 +28585,10 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J17" t="n">
-        <v>76.781618964594</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K17" t="n">
-        <v>48.84654618763383</v>
+        <v>195.2251254655482</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,10 +28603,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108868</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2096703566692</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R17" t="n">
         <v>297.4476709269844</v>
@@ -28615,10 +28615,10 @@
         <v>297.4476709269844</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4658813998192</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4476709269844</v>
+        <v>264.5852354411522</v>
       </c>
       <c r="V17" t="n">
         <v>297.4476709269844</v>
@@ -28658,13 +28658,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,19 +28685,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>21.16599150538721</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757068</v>
       </c>
       <c r="T18" t="n">
-        <v>46.63426889240287</v>
+        <v>26.47299028624304</v>
       </c>
       <c r="U18" t="n">
-        <v>48.73013617764131</v>
+        <v>48.73013617764137</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -28746,22 +28746,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013918995</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817884</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M19" t="n">
-        <v>25.2168653988934</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N19" t="n">
-        <v>16.5201573692813</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O19" t="n">
         <v>37.47888399777676</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024884</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28819,31 +28819,31 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4476709269844</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2795522838413</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300887</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108868</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.4154270962074</v>
+        <v>225.6187361433635</v>
       </c>
       <c r="R20" t="n">
         <v>194.8815453823668</v>
@@ -28852,7 +28852,7 @@
         <v>297.4476709269844</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U20" t="n">
         <v>297.4476709269844</v>
@@ -28883,19 +28883,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7355245857741</v>
+        <v>65.10072746459014</v>
       </c>
       <c r="I21" t="n">
         <v>107.3634103439873</v>
@@ -28922,25 +28922,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>3.092858000756991</v>
+        <v>3.092858000757068</v>
       </c>
       <c r="T21" t="n">
-        <v>26.47299028624295</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
-        <v>183.1138522932152</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>78.20665025776435</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -28983,22 +28983,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K22" t="n">
-        <v>67.02998013918995</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817884</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M22" t="n">
-        <v>25.2168653988934</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N22" t="n">
-        <v>16.5201573692813</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O22" t="n">
         <v>37.47888399777676</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024884</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29056,16 +29056,16 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
-        <v>264.5852354411522</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J23" t="n">
-        <v>76.781618964594</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300887</v>
+        <v>195.2251254655482</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29077,16 +29077,16 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108868</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2096703566692</v>
+        <v>144.4788420395907</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269844</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S23" t="n">
-        <v>297.4476709269844</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T23" t="n">
         <v>297.4476709269844</v>
@@ -29117,10 +29117,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29129,7 +29129,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>125.7355245857741</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874160998</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890776</v>
@@ -29171,19 +29171,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2280694968886</v>
+        <v>48.73013617764138</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8124745295064</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>78.20665025776435</v>
       </c>
       <c r="X24" t="n">
-        <v>28.81498112022331</v>
+        <v>206.8979951206654</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.88635281477832</v>
+        <v>34.88635281477838</v>
       </c>
     </row>
     <row r="25">
@@ -29220,22 +29220,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K25" t="n">
-        <v>67.02998013918995</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817884</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M25" t="n">
-        <v>25.2168653988934</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N25" t="n">
-        <v>16.5201573692813</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O25" t="n">
         <v>37.47888399777676</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024884</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4847505240014</v>
+        <v>213.484750524001</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="27">
@@ -29357,13 +29357,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446044746268</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874160998</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R27" t="n">
         <v>134.7198007890776</v>
@@ -29405,22 +29405,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U27" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W27" t="n">
-        <v>10.16356477049402</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4847505240009</v>
+        <v>114.6745684429995</v>
       </c>
     </row>
     <row r="28">
@@ -29451,55 +29451,55 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I28" t="n">
-        <v>164.852968067965</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J28" t="n">
         <v>120.2396075829089</v>
       </c>
       <c r="K28" t="n">
-        <v>213.4847505240009</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15181624817884</v>
+        <v>213.484750524001</v>
       </c>
       <c r="M28" t="n">
-        <v>25.2168653988934</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N28" t="n">
-        <v>16.5201573692813</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O28" t="n">
         <v>37.47888399777676</v>
       </c>
       <c r="P28" t="n">
-        <v>58.47859890024884</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.3337456403605</v>
+        <v>129.8237992933128</v>
       </c>
       <c r="R28" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="29">
@@ -29600,16 +29600,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7355245857741</v>
+        <v>36.64720505041548</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>52.47517038390257</v>
@@ -29633,13 +29633,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874160998</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S30" t="n">
-        <v>147.0930446864257</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29648,10 +29648,10 @@
         <v>213.4847505240009</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W30" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>213.4847505240009</v>
@@ -29673,19 +29673,19 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>213.4847505240009</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H31" t="n">
-        <v>165.8243976546666</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I31" t="n">
         <v>164.852968067965</v>
@@ -29694,25 +29694,25 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K31" t="n">
-        <v>67.02998013918995</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15181624817884</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M31" t="n">
-        <v>25.2168653988934</v>
+        <v>141.8259423177511</v>
       </c>
       <c r="N31" t="n">
-        <v>16.5201573692813</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O31" t="n">
         <v>37.47888399777676</v>
       </c>
       <c r="P31" t="n">
-        <v>213.4847505240009</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q31" t="n">
-        <v>130.2244960958652</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R31" t="n">
         <v>203.4299611556341</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="C32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="D32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="E32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="F32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="G32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="H32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="I32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3124603908652</v>
+        <v>213.6262506492483</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="N32" t="n">
-        <v>194.1953356407518</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="P32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="33">
@@ -29828,19 +29828,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>49.58387623376397</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H33" t="n">
         <v>125.7355245857741</v>
@@ -29879,22 +29879,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V33" t="n">
-        <v>214.3124603908652</v>
+        <v>128.9419082966297</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="34">
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>214.3124603908652</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29946,34 +29946,34 @@
         <v>37.47888399777676</v>
       </c>
       <c r="P34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.4650054642039</v>
+        <v>150.1877650064382</v>
       </c>
       <c r="R34" t="n">
-        <v>214.3124603908652</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="35">
@@ -30010,13 +30010,13 @@
         <v>272.0591682562687</v>
       </c>
       <c r="K35" t="n">
-        <v>17.8420126507351</v>
+        <v>16.83456304307374</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>178.7821234236173</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30025,13 +30025,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.0919723510887</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Q35" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S35" t="n">
         <v>272.0591682562687</v>
@@ -30068,19 +30068,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7446044746268</v>
+        <v>66.12976294918107</v>
       </c>
       <c r="H36" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>107.3634103439873</v>
@@ -30113,10 +30113,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>66.50203631959633</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280694968886</v>
@@ -30195,7 +30195,7 @@
         <v>235.4380443661805</v>
       </c>
       <c r="T37" t="n">
-        <v>223.761558450323</v>
+        <v>259.3180603841699</v>
       </c>
       <c r="U37" t="n">
         <v>272.0591682562687</v>
@@ -30207,7 +30207,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="X37" t="n">
-        <v>257.4759573420896</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
         <v>217.1412728141684</v>
@@ -30244,19 +30244,19 @@
         <v>272.0591682562687</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0591682562687</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K38" t="n">
-        <v>196.6241360743524</v>
+        <v>150.4673300892471</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>178.7821234236172</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3720284248848</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30268,10 +30268,10 @@
         <v>272.0591682562687</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0591682562687</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T38" t="n">
         <v>272.0591682562687</v>
@@ -30302,13 +30302,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>87.59083195066442</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30320,10 +30320,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>6.869455874161009</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S39" t="n">
         <v>191.5907913200043</v>
@@ -30356,7 +30356,7 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>22.80349010346623</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H40" t="n">
-        <v>165.8243976546666</v>
+        <v>174.4307465166947</v>
       </c>
       <c r="I40" t="n">
         <v>164.852968067965</v>
@@ -30420,7 +30420,7 @@
         <v>37.47888399777676</v>
       </c>
       <c r="P40" t="n">
-        <v>94.03510083409589</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2169859636892</v>
@@ -30438,7 +30438,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="W40" t="n">
         <v>272.0591682562687</v>
@@ -30487,10 +30487,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="L41" t="n">
-        <v>54.69629248006513</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30499,13 +30499,13 @@
         <v>241.009769215476</v>
       </c>
       <c r="P41" t="n">
-        <v>241.009769215476</v>
+        <v>100.8245163131741</v>
       </c>
       <c r="Q41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="R41" t="n">
-        <v>241.009769215476</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S41" t="n">
         <v>241.009769215476</v>
@@ -30542,10 +30542,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30590,19 +30590,19 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280694968886</v>
+        <v>61.25492743183068</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>50.03937955321666</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30624,10 +30624,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>241.009769215476</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>142.6918886360943</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.7007749271525</v>
@@ -30639,7 +30639,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
-        <v>120.2396075829089</v>
+        <v>223.3382420038076</v>
       </c>
       <c r="K43" t="n">
         <v>67.02998013918996</v>
@@ -30724,22 +30724,22 @@
         <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
-        <v>54.69629248006514</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>190.9023523070307</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="O44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="P44" t="n">
-        <v>241.009769215476</v>
+        <v>15.09197235108871</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.009769215476</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R44" t="n">
         <v>241.009769215476</v>
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30791,13 +30791,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H45" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,10 +30818,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161012</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>191.5907913200043</v>
@@ -30836,10 +30836,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>98.65426211272191</v>
+        <v>103.4083788047009</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30867,13 +30867,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.7007749271525</v>
+        <v>172.8226725860917</v>
       </c>
       <c r="H46" t="n">
         <v>165.8243976546666</v>
       </c>
       <c r="I46" t="n">
-        <v>164.852968067965</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J46" t="n">
         <v>120.2396075829089</v>
@@ -30897,13 +30897,13 @@
         <v>58.47859890024885</v>
       </c>
       <c r="Q46" t="n">
-        <v>175.487601559593</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R46" t="n">
+        <v>203.4299611556341</v>
+      </c>
+      <c r="S46" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="S46" t="n">
-        <v>235.4380443661805</v>
       </c>
       <c r="T46" t="n">
         <v>241.009769215476</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.406719131963174</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217857</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501028</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645947</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246064</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727864</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032873</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401911</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556029</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521942</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178823</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318175</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610837</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168795</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705391</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650135</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122631</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729633</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J12" t="n">
         <v>20.55974324884586</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000176</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447585</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133258</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N12" t="n">
-        <v>56.5977538142756</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O12" t="n">
-        <v>51.7758874713403</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862175</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795506</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51115200922251</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935665</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971375</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431670529375089</v>
@@ -31914,43 +31914,43 @@
         <v>1.622059239773298</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014386</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J13" t="n">
         <v>12.89852219602958</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752836</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600461</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786397</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309195</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837959</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221262</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545178</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542664</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629253</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679442</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590792</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.406719131963174</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217857</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I14" t="n">
-        <v>15.68003933501028</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645947</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246064</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727864</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032873</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401911</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556029</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521942</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178823</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318175</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610837</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168795</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705391</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650135</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122631</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729633</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J15" t="n">
         <v>20.55974324884586</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000176</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447585</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133258</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N15" t="n">
-        <v>56.5977538142756</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O15" t="n">
-        <v>51.7758874713403</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862175</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795506</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51115200922251</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935665</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971375</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431670529375089</v>
@@ -32151,43 +32151,43 @@
         <v>1.622059239773298</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014386</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J16" t="n">
         <v>12.89852219602958</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752836</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600461</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786397</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91832636309195</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837959</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221262</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27687899545178</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542664</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629253</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679442</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590792</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.406719131963174</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217857</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501028</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645947</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246064</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727864</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032873</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401911</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556029</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521942</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178823</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318175</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610837</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168795</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705391</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650135</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122631</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729633</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J18" t="n">
         <v>20.55974324884586</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000176</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447585</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133258</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N18" t="n">
-        <v>56.5977538142756</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O18" t="n">
-        <v>51.7758874713403</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862175</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795506</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922251</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935665</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971375</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375089</v>
@@ -32388,43 +32388,43 @@
         <v>1.622059239773298</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014386</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J19" t="n">
         <v>12.89852219602958</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752836</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600461</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786397</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309195</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837959</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221262</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545178</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542664</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629253</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679442</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590792</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.406719131963174</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217857</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I20" t="n">
-        <v>15.68003933501028</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645947</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246064</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727864</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032873</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401911</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556029</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521942</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178823</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54857067318175</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610837</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168795</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705391</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2176139204650135</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122631</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729633</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J21" t="n">
         <v>20.55974324884586</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000176</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447585</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133258</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N21" t="n">
-        <v>56.5977538142756</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O21" t="n">
-        <v>51.7758874713403</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862175</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795506</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51115200922251</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935665</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971375</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431670529375089</v>
@@ -32625,43 +32625,43 @@
         <v>1.622059239773298</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014386</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J22" t="n">
         <v>12.89852219602958</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752836</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600461</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786397</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91832636309195</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837959</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221262</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27687899545178</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542664</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629253</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679442</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590792</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.406719131963174</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217857</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I23" t="n">
-        <v>15.68003933501028</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645947</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246064</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727864</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032873</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401911</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556029</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521942</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178823</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318175</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610837</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168795</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705391</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650135</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122631</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729633</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J24" t="n">
         <v>20.55974324884586</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000176</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447585</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133258</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N24" t="n">
-        <v>56.5977538142756</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O24" t="n">
-        <v>51.7758874713403</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862175</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795506</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R24" t="n">
-        <v>13.51115200922251</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935665</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971375</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375089</v>
@@ -32862,43 +32862,43 @@
         <v>1.622059239773298</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014386</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J25" t="n">
         <v>12.89852219602958</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752836</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600461</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786397</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309195</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837959</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221262</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27687899545178</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542664</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629253</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679442</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590792</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.406719131963174</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217857</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I26" t="n">
-        <v>15.68003933501028</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645947</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246064</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727864</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032873</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401911</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556029</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521942</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178823</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54857067318175</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610837</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168795</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705391</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650135</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122631</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729633</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J27" t="n">
         <v>20.55974324884586</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000176</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447585</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133258</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N27" t="n">
-        <v>56.5977538142756</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O27" t="n">
-        <v>51.7758874713403</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862175</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795506</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51115200922251</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935665</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971375</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431670529375089</v>
@@ -33099,43 +33099,43 @@
         <v>1.622059239773298</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014386</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J28" t="n">
         <v>12.89852219602958</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752836</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600461</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786397</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91832636309195</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837959</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221262</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27687899545178</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542664</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629253</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679442</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590792</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.406719131963174</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217857</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501028</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645947</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246064</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727864</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032873</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401911</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556029</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521942</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178823</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318175</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610837</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168795</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705391</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650135</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122631</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729633</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J30" t="n">
         <v>20.55974324884586</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000176</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447585</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133258</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N30" t="n">
-        <v>56.5977538142756</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O30" t="n">
-        <v>51.7758874713403</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862175</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795506</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R30" t="n">
-        <v>13.51115200922251</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935665</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971375</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431670529375089</v>
@@ -33336,43 +33336,43 @@
         <v>1.622059239773298</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014386</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J31" t="n">
         <v>12.89852219602958</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752836</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600461</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786397</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309195</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837959</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221262</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545178</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542664</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629253</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679442</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590792</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35155,7 +35155,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -35212,7 +35212,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="M9" t="n">
-        <v>3.069987028295762</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>3.199249640013477</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3666451884737</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05802066359295437</v>
+        <v>101.4246658520663</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258607</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641149</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514391</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P11" t="n">
-        <v>163.056291801979</v>
+        <v>163.0562918019791</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43652711564579</v>
+        <v>88.43652711564587</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543477</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296709</v>
@@ -35498,13 +35498,13 @@
         <v>183.5117642464702</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192474</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O12" t="n">
-        <v>133.0312521404389</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181814</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,16 +35541,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.5313434880997079</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.96561390235709</v>
       </c>
       <c r="E13" t="n">
-        <v>36.4721229408427</v>
+        <v>36.47212294084281</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35562,19 +35562,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.29529608510277</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.90865657015885</v>
       </c>
       <c r="K13" t="n">
-        <v>111.1182840138777</v>
+        <v>52.9738448351688</v>
       </c>
       <c r="L13" t="n">
-        <v>39.62152001772542</v>
+        <v>145.996447904889</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9313987541743</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6696652528188</v>
+        <v>119.669665252819</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937849</v>
+        <v>50.9312781893786</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884737</v>
+        <v>101.3666451884738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>188.4979333192473</v>
+        <v>70.39055386477104</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641149</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="N14" t="n">
-        <v>177.2098012376073</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O14" t="n">
-        <v>34.56629766936146</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P14" t="n">
-        <v>163.056291801979</v>
+        <v>163.0562918019792</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543477</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296709</v>
@@ -35735,13 +35735,13 @@
         <v>183.5117642464702</v>
       </c>
       <c r="N15" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O15" t="n">
-        <v>133.0312521404389</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181814</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,7 +35784,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.96561390235698</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90865657015875</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>145.9964479048888</v>
+        <v>88.77711697691947</v>
       </c>
       <c r="M16" t="n">
-        <v>61.31416581824799</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6281067837864</v>
+        <v>161.6281067837865</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>140.6693801552911</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.669665252819</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.93127818937849</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,37 +35884,37 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>42.11935404133294</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258607</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641149</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514391</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936146</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.4979333192473</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>102.5661255446176</v>
       </c>
       <c r="S17" t="n">
-        <v>69.93067636853625</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U17" t="n">
-        <v>47.29712943433467</v>
+        <v>14.43469394850243</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543477</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296709</v>
@@ -35972,13 +35972,13 @@
         <v>183.5117642464702</v>
       </c>
       <c r="N18" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O18" t="n">
-        <v>133.0312521404389</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181814</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,40 +36115,40 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43790171150839</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>188.4979333192473</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258607</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641149</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514391</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936146</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.70369005878551</v>
+        <v>135.9069991059416</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93067636853625</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>47.29712943433467</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543477</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L21" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M21" t="n">
         <v>183.5117642464702</v>
       </c>
       <c r="N21" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O21" t="n">
-        <v>133.0312521404389</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181814</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,37 +36352,37 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>23.57546622567618</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258607</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641149</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514391</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936146</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.4979333192473</v>
+        <v>54.76710500216883</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.93067636853625</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>74.98178952716516</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543477</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296709</v>
@@ -36446,13 +36446,13 @@
         <v>183.5117642464702</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O24" t="n">
-        <v>133.0312521404389</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181814</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583777001</v>
       </c>
       <c r="L26" t="n">
-        <v>260.677520706587</v>
+        <v>260.6775207065871</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704125</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691449</v>
       </c>
       <c r="O26" t="n">
         <v>248.0510481933624</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729123</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865791</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163463</v>
+        <v>18.60320514163419</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543477</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296709</v>
@@ -36686,10 +36686,10 @@
         <v>206.9747236472316</v>
       </c>
       <c r="O27" t="n">
-        <v>133.0312521404389</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181814</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36747,16 +36747,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.63178245603598</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>146.454770384811</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>181.3329342758222</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.11675967667135</v>
+        <v>2.606813329623607</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163413</v>
+        <v>18.60320514163412</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543477</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296709</v>
@@ -36923,10 +36923,10 @@
         <v>206.9747236472316</v>
       </c>
       <c r="O30" t="n">
-        <v>133.0312521404389</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181814</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36969,19 +36969,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>68.30210027329022</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>74.55786830555428</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.66035286933435</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>116.6090769188577</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,10 +37005,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>155.0061516237521</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.007510132175984</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262711</v>
+        <v>137.5308414262713</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5852682445642</v>
+        <v>207.5852682445644</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734512</v>
+        <v>260.8190208318343</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372766</v>
+        <v>295.9911463372767</v>
       </c>
       <c r="N32" t="n">
-        <v>270.2841165858957</v>
+        <v>290.4012413360092</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602266</v>
+        <v>248.8787580602267</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2204880397765</v>
+        <v>199.2204880397766</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6007233534432</v>
+        <v>124.6007233534434</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849836</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37200,10 +37200,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.69553972589708</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.85527941889293</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>155.8338614906163</v>
+        <v>155.8338614906164</v>
       </c>
       <c r="Q34" t="n">
-        <v>23.2480195005147</v>
+        <v>22.97077904274898</v>
       </c>
       <c r="R34" t="n">
-        <v>10.88249923523106</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>195.2775492916747</v>
       </c>
       <c r="K35" t="n">
-        <v>11.11482050443419</v>
+        <v>10.10737089677283</v>
       </c>
       <c r="L35" t="n">
         <v>47.19277018258605</v>
       </c>
       <c r="M35" t="n">
-        <v>260.4608093700288</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N35" t="n">
         <v>76.08878094514388</v>
@@ -37321,13 +37321,13 @@
         <v>34.56629766936143</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>256.96719590518</v>
       </c>
       <c r="Q35" t="n">
         <v>182.3474312188468</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390191</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>44.54217369782055</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>35.55650193384695</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37503,7 +37503,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>31.04939904079269</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2775492916747</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>189.8969439280515</v>
+        <v>143.7401379429462</v>
       </c>
       <c r="L38" t="n">
         <v>47.19277018258605</v>
       </c>
       <c r="M38" t="n">
-        <v>81.67868594641146</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514388</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="O38" t="n">
         <v>34.56629766936143</v>
@@ -37564,10 +37564,10 @@
         <v>182.3474312188468</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17762287390191</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54217369782055</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>49.59328685644947</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8.606348862028169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>26.95015307181882</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37783,10 +37783,10 @@
         <v>234.2825770691751</v>
       </c>
       <c r="L41" t="n">
-        <v>101.8890626626512</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M41" t="n">
-        <v>81.67868594641146</v>
+        <v>322.6884551618875</v>
       </c>
       <c r="N41" t="n">
         <v>76.08878094514388</v>
@@ -37795,13 +37795,13 @@
         <v>275.5760668848375</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643873</v>
+        <v>85.73254396208544</v>
       </c>
       <c r="Q41" t="n">
         <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>46.1282238331092</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>13.49277465702784</v>
@@ -37920,10 +37920,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.33362800325102</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>3.765006417647671</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>103.0986344208987</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -38020,22 +38020,22 @@
         <v>234.2825770691751</v>
       </c>
       <c r="L44" t="n">
-        <v>101.8890626626512</v>
+        <v>47.19277018258603</v>
       </c>
       <c r="M44" t="n">
-        <v>81.67868594641145</v>
+        <v>272.5810382534422</v>
       </c>
       <c r="N44" t="n">
-        <v>76.08878094514387</v>
+        <v>317.0985501606199</v>
       </c>
       <c r="O44" t="n">
         <v>275.5760668848374</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643873</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2980321780541</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>46.1282238331092</v>
@@ -38163,13 +38163,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>4.121897658939258</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>76.15680114751098</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38193,13 +38193,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.27061559590379</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.5798080598419</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.571724849295453</v>
       </c>
       <c r="T46" t="n">
         <v>17.248210765153</v>
